--- a/biology/Zoologie/Hyla_orientalis/Hyla_orientalis.xlsx
+++ b/biology/Zoologie/Hyla_orientalis/Hyla_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla orientalis est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla orientalis est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Pologne, en Ukraine, en Roumanie, en Bulgarie, en Turquie, dans le sud de la Russie, en Azerbaïdjan et en Iran[1]. Sa présence est incertaine en Grèce.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Pologne, en Ukraine, en Roumanie, en Bulgarie, en Turquie, dans le sud de la Russie, en Azerbaïdjan et en Iran. Sa présence est incertaine en Grèce.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été retirée de sa synonymie avec Hyla arborea par Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008[2] où elle avait été placée par Boulenger en 1998[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été retirée de sa synonymie avec Hyla arborea par Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008 où elle avait été placée par Boulenger en 1998.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, une étude est publiée sur des spécimens d'Hyla orientalis de la région de Tchernobyl en Ukraine, dont la peau était devenue noire ; les auteurs établissent que les rayons ionisants sont à la source de ce mélanisme des grenouilles arboricoles vivant dans la zone d'exclusion de la centrale[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, une étude est publiée sur des spécimens d'Hyla orientalis de la région de Tchernobyl en Ukraine, dont la peau était devenue noire ; les auteurs établissent que les rayons ionisants sont à la source de ce mélanisme des grenouilles arboricoles vivant dans la zone d'exclusion de la centrale,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bedriaga, 1890 "1889" : Die Lurche Europa's. Bulletin de la Société Impériale des Naturalistes de Moscou, Nouvelle série, vol. 3, p. 466–622 (texte intégral).
 Chernov, 1926 : Sur la connaissance de la faune herpetologique d'Armenie et de la contree du Nakhiezevan. Bulletin des Sciences de l'Institut d'Exploration de la région Caucase Nord Vladicaucase, vol. 1, p. 63-72.
